--- a/www.eia.gov/electricity/monthly/xls/table_4_10_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_10_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="75">
-  <si>
-    <t>Table 4.10.A. Average Cost of Coal Delivered for Electricity Generation by State, October 2016 and 2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="75">
+  <si>
+    <t>Table 4.10.A. Average Cost of Coal Delivered for Electricity Generation by State, November 2016 and 2015</t>
   </si>
   <si>
     <t>(Dollars per MMBtu)</t>
@@ -46,10 +46,10 @@
     <t/>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -61,10 +61,10 @@
     <t>W</t>
   </si>
   <si>
+    <t>--</t>
+  </si>
+  <si>
     <t>Connecticut</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>Maine</t>
@@ -1303,11 +1303,11 @@
       <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10">
-        <v>4.1399999999999997</v>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="10">
-        <v>3.95</v>
+        <v>3.57</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>11</v>
@@ -1318,28 +1318,28 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1356,10 +1356,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>11</v>
@@ -1376,48 +1376,48 @@
         <v>11</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13">
-        <v>4.1399999999999997</v>
+      <c r="B9" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="13">
-        <v>3.95</v>
-      </c>
-      <c r="D9" s="14">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E9" s="13">
-        <v>4.1399999999999997</v>
+        <v>3.57</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="F9" s="13">
-        <v>3.95</v>
+        <v>3.57</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1425,25 +1425,25 @@
         <v>17</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1451,25 +1451,25 @@
         <v>18</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1477,25 +1477,25 @@
         <v>19</v>
       </c>
       <c r="B12" s="10">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="C12" s="10">
-        <v>2.2000000000000002</v>
+        <v>2.14</v>
       </c>
       <c r="D12" s="11">
-        <v>-0.11</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="10">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H12" s="10">
-        <v>2.2000000000000002</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,23 +1505,23 @@
       <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="13">
-        <v>3.45</v>
+      <c r="C13" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="13">
-        <v>3.45</v>
+      <c r="H13" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1531,23 +1531,23 @@
       <c r="B14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13">
-        <v>2.4700000000000002</v>
+      <c r="C14" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="13">
-        <v>2.4700000000000002</v>
+      <c r="H14" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1555,25 +1555,25 @@
         <v>22</v>
       </c>
       <c r="B15" s="13">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="C15" s="13">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="D15" s="14">
-        <v>-0.13</v>
+        <v>-0.11</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="13">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H15" s="13">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1584,45 +1584,45 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="C16" s="10">
+        <v>2.13</v>
+      </c>
+      <c r="D16" s="11">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="E16" s="10">
         <v>2.14</v>
-      </c>
-      <c r="D16" s="11">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="E16" s="10">
-        <v>2.19</v>
       </c>
       <c r="F16" s="10">
         <v>2.23</v>
       </c>
       <c r="G16" s="10">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H16" s="10">
-        <v>2.0099999999999998</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>11</v>
+      <c r="B17" s="13">
+        <v>1.75</v>
       </c>
       <c r="C17" s="13">
-        <v>1.89</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>11</v>
+        <v>1.91</v>
+      </c>
+      <c r="D17" s="14">
+        <v>-8.4000000000000005E-2</v>
       </c>
       <c r="E17" s="13">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="F17" s="13">
-        <v>2.04</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>11</v>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1.74</v>
       </c>
       <c r="H17" s="13">
         <v>1.86</v>
@@ -1642,10 +1642,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="13">
-        <v>2.29</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F18" s="13">
-        <v>2.29</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>11</v>
@@ -1671,7 +1671,7 @@
         <v>2.23</v>
       </c>
       <c r="F19" s="13">
-        <v>2.29</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>11</v>
@@ -1684,8 +1684,8 @@
       <c r="A20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="13">
-        <v>2.09</v>
+      <c r="B20" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>11</v>
@@ -1694,13 +1694,13 @@
         <v>11</v>
       </c>
       <c r="E20" s="13">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="F20" s="13">
-        <v>2.14</v>
-      </c>
-      <c r="G20" s="13">
-        <v>2.15</v>
+        <v>2.08</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>11</v>
@@ -1711,25 +1711,25 @@
         <v>28</v>
       </c>
       <c r="B21" s="13">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="C21" s="13">
-        <v>2.1800000000000002</v>
+        <v>2.13</v>
       </c>
       <c r="D21" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E21" s="13">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="F21" s="13">
-        <v>2.1800000000000002</v>
+        <v>2.13</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1737,25 +1737,25 @@
         <v>29</v>
       </c>
       <c r="B22" s="10">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="C22" s="10">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="D22" s="11">
-        <v>1.7999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E22" s="10">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="F22" s="10">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1763,25 +1763,25 @@
         <v>30</v>
       </c>
       <c r="B23" s="13">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="C23" s="13">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="D23" s="14">
-        <v>-4.9000000000000002E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="F23" s="13">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1789,25 +1789,25 @@
         <v>31</v>
       </c>
       <c r="B24" s="13">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="C24" s="13">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="D24" s="14">
-        <v>-1.7999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E24" s="13">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="F24" s="13">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1818,22 +1818,22 @@
         <v>2.02</v>
       </c>
       <c r="C25" s="13">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="D25" s="14">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E25" s="13">
         <v>2.02</v>
       </c>
       <c r="F25" s="13">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1841,25 +1841,25 @@
         <v>33</v>
       </c>
       <c r="B26" s="13">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="C26" s="13">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="D26" s="14">
-        <v>3.3000000000000002E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E26" s="13">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F26" s="13">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1867,25 +1867,25 @@
         <v>34</v>
       </c>
       <c r="B27" s="13">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="C27" s="13">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="D27" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E27" s="13">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="F27" s="13">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1893,25 +1893,25 @@
         <v>35</v>
       </c>
       <c r="B28" s="13">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C28" s="13">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="D28" s="14">
-        <v>-2.1000000000000001E-2</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="E28" s="13">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F28" s="13">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1919,25 +1919,25 @@
         <v>36</v>
       </c>
       <c r="B29" s="13">
-        <v>2.2799999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C29" s="13">
-        <v>2.12</v>
+        <v>2.93</v>
       </c>
       <c r="D29" s="14">
-        <v>7.4999999999999997E-2</v>
+        <v>-0.22</v>
       </c>
       <c r="E29" s="13">
-        <v>2.2799999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F29" s="13">
-        <v>2.12</v>
+        <v>2.93</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1945,25 +1945,25 @@
         <v>37</v>
       </c>
       <c r="B30" s="10">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="C30" s="10">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="D30" s="11">
-        <v>-5.2999999999999999E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E30" s="10">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="F30" s="10">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="G30" s="10">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="H30" s="10">
-        <v>2.57</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1971,25 +1971,25 @@
         <v>38</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1997,33 +1997,33 @@
         <v>39</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>11</v>
+      <c r="B33" s="13">
+        <v>3</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>11</v>
@@ -2032,13 +2032,13 @@
         <v>11</v>
       </c>
       <c r="E33" s="13">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="F33" s="13">
         <v>3.14</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>11</v>
@@ -2049,25 +2049,25 @@
         <v>41</v>
       </c>
       <c r="B34" s="13">
+        <v>2.68</v>
+      </c>
+      <c r="C34" s="13">
         <v>2.69</v>
       </c>
-      <c r="C34" s="13">
-        <v>2.76</v>
-      </c>
       <c r="D34" s="14">
-        <v>-2.5000000000000001E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E34" s="13">
+        <v>2.68</v>
+      </c>
+      <c r="F34" s="13">
         <v>2.69</v>
       </c>
-      <c r="F34" s="13">
-        <v>2.76</v>
-      </c>
       <c r="G34" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2075,25 +2075,25 @@
         <v>42</v>
       </c>
       <c r="B35" s="13">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="C35" s="13">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="D35" s="14">
         <v>1.4E-2</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" s="13">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="H35" s="13">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2101,25 +2101,25 @@
         <v>43</v>
       </c>
       <c r="B36" s="13">
-        <v>3.08</v>
+        <v>3.19</v>
       </c>
       <c r="C36" s="13">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="D36" s="14">
-        <v>-8.1000000000000003E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="E36" s="13">
-        <v>3.08</v>
+        <v>3.19</v>
       </c>
       <c r="F36" s="13">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="13">
-        <v>3.43</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2127,25 +2127,25 @@
         <v>44</v>
       </c>
       <c r="B37" s="13">
-        <v>3.35</v>
+        <v>3.11</v>
       </c>
       <c r="C37" s="13">
-        <v>3.64</v>
+        <v>3.47</v>
       </c>
       <c r="D37" s="14">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="E37" s="13">
-        <v>3.35</v>
+        <v>3.11</v>
       </c>
       <c r="F37" s="13">
-        <v>3.64</v>
+        <v>3.47</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2162,10 +2162,10 @@
         <v>11</v>
       </c>
       <c r="E38" s="13">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="F38" s="13">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>11</v>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="13">
-        <v>2.2799999999999998</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>11</v>
@@ -2191,13 +2191,13 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="F39" s="13">
-        <v>2.34</v>
+        <v>2.37</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="13">
-        <v>1.92</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2214,10 +2214,10 @@
         <v>11</v>
       </c>
       <c r="E40" s="10">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="F40" s="10">
-        <v>2.27</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>11</v>
@@ -2231,25 +2231,25 @@
         <v>48</v>
       </c>
       <c r="B41" s="13">
-        <v>2.0699999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C41" s="13">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="D41" s="14">
-        <v>-0.12</v>
+        <v>-0.05</v>
       </c>
       <c r="E41" s="13">
-        <v>2.0699999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F41" s="13">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2257,25 +2257,25 @@
         <v>49</v>
       </c>
       <c r="B42" s="13">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="C42" s="13">
-        <v>2.1800000000000002</v>
+        <v>2.17</v>
       </c>
       <c r="D42" s="14">
-        <v>-3.2000000000000001E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="E42" s="13">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="F42" s="13">
-        <v>2.1800000000000002</v>
+        <v>2.17</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2295,7 +2295,7 @@
         <v>2.67</v>
       </c>
       <c r="F43" s="13">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>11</v>
@@ -2309,25 +2309,25 @@
         <v>51</v>
       </c>
       <c r="B44" s="13">
-        <v>2.2000000000000002</v>
+        <v>2.31</v>
       </c>
       <c r="C44" s="13">
-        <v>2.36</v>
+        <v>2.23</v>
       </c>
       <c r="D44" s="14">
-        <v>-6.8000000000000005E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E44" s="13">
-        <v>2.2000000000000002</v>
+        <v>2.31</v>
       </c>
       <c r="F44" s="13">
-        <v>2.36</v>
+        <v>2.23</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2335,22 +2335,22 @@
         <v>52</v>
       </c>
       <c r="B45" s="10">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="C45" s="10">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="D45" s="11">
-        <v>-1.4999999999999999E-2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="E45" s="10">
         <v>2.12</v>
       </c>
       <c r="F45" s="10">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="G45" s="10">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="H45" s="10">
         <v>1.79</v>
@@ -2373,7 +2373,7 @@
         <v>2.09</v>
       </c>
       <c r="F46" s="13">
-        <v>2.2799999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>11</v>
@@ -2396,10 +2396,10 @@
         <v>11</v>
       </c>
       <c r="E47" s="13">
-        <v>3.25</v>
+        <v>3.06</v>
       </c>
       <c r="F47" s="13">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>11</v>
@@ -2422,10 +2422,10 @@
         <v>11</v>
       </c>
       <c r="E48" s="13">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="F48" s="13">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>11</v>
@@ -2439,25 +2439,25 @@
         <v>56</v>
       </c>
       <c r="B49" s="13">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="C49" s="13">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="D49" s="14">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E49" s="13">
-        <v>2.06</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F49" s="13">
-        <v>2.02</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="G49" s="13">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="H49" s="13">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2474,10 +2474,10 @@
         <v>11</v>
       </c>
       <c r="E50" s="10">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="F50" s="10">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>11</v>
@@ -2491,25 +2491,25 @@
         <v>58</v>
       </c>
       <c r="B51" s="13">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="C51" s="13">
-        <v>1.98</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D51" s="14">
-        <v>6.0999999999999999E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E51" s="13">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="F51" s="13">
-        <v>1.98</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2517,25 +2517,25 @@
         <v>59</v>
       </c>
       <c r="B52" s="13">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="C52" s="13">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="D52" s="14">
-        <v>1.0999999999999999E-2</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="E52" s="13">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="F52" s="13">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2543,25 +2543,25 @@
         <v>60</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2578,10 +2578,10 @@
         <v>11</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" s="13">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>11</v>
@@ -2604,10 +2604,10 @@
         <v>11</v>
       </c>
       <c r="E55" s="13">
-        <v>2</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F55" s="13">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>11</v>
@@ -2621,25 +2621,25 @@
         <v>63</v>
       </c>
       <c r="B56" s="13">
-        <v>1.99</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C56" s="13">
-        <v>2.2799999999999998</v>
+        <v>2.19</v>
       </c>
       <c r="D56" s="14">
-        <v>-0.13</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="E56" s="13">
-        <v>1.99</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F56" s="13">
-        <v>2.2799999999999998</v>
+        <v>2.19</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2647,25 +2647,25 @@
         <v>64</v>
       </c>
       <c r="B57" s="13">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C57" s="13">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="D57" s="14">
-        <v>-2.5999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E57" s="13">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F57" s="13">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2673,7 +2673,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="13">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>11</v>
@@ -2682,13 +2682,13 @@
         <v>11</v>
       </c>
       <c r="E58" s="13">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="F58" s="13">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>11</v>
@@ -2711,7 +2711,7 @@
         <v>2.14</v>
       </c>
       <c r="F59" s="10">
-        <v>2.36</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>11</v>
@@ -2725,25 +2725,25 @@
         <v>67</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2754,22 +2754,22 @@
         <v>2.14</v>
       </c>
       <c r="C61" s="13">
-        <v>2.36</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D61" s="14">
-        <v>-9.2999999999999999E-2</v>
+        <v>-0.15</v>
       </c>
       <c r="E61" s="13">
         <v>2.14</v>
       </c>
       <c r="F61" s="13">
-        <v>2.36</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2786,10 +2786,10 @@
         <v>11</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>11</v>
@@ -2812,10 +2812,10 @@
         <v>11</v>
       </c>
       <c r="E63" s="10">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="F63" s="10">
-        <v>3.27</v>
+        <v>3.57</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>11</v>
@@ -2829,25 +2829,25 @@
         <v>71</v>
       </c>
       <c r="B64" s="13">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="C64" s="13">
-        <v>3.27</v>
+        <v>3.57</v>
       </c>
       <c r="D64" s="14">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.16</v>
       </c>
       <c r="E64" s="13">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="F64" s="13">
-        <v>3.27</v>
+        <v>3.57</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2864,10 +2864,10 @@
         <v>11</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>11</v>
@@ -2881,25 +2881,25 @@
         <v>73</v>
       </c>
       <c r="B66" s="10">
-        <v>2.0699999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="C66" s="10">
         <v>2.14</v>
       </c>
       <c r="D66" s="11">
-        <v>-3.3000000000000002E-2</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="E66" s="10">
         <v>2.13</v>
       </c>
       <c r="F66" s="10">
-        <v>2.19</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G66" s="10">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="H66" s="10">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="186.95" customHeight="1" x14ac:dyDescent="0.25">
